--- a/Full_Project_Plan_Modules_1_to_13_with_Formulas.xlsx
+++ b/Full_Project_Plan_Modules_1_to_13_with_Formulas.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shree\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718B2F39-F79C-4FA8-BD91-3B014C32CAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DBA8AF-9E1A-4A21-A56C-753EE8F8669D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phase 2" sheetId="1" r:id="rId1"/>
-    <sheet name="Holidays" sheetId="2" r:id="rId2"/>
+    <sheet name="Updated" sheetId="3" r:id="rId2"/>
+    <sheet name="Holidays" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="186">
   <si>
     <t>Module</t>
   </si>
@@ -510,13 +511,106 @@
   </si>
   <si>
     <t>Module 13: Configuration Master Data</t>
+  </si>
+  <si>
+    <t>Dev-1 (Lead) + Dev-3</t>
+  </si>
+  <si>
+    <t>Dev-1 + UI-1 + Dev-3</t>
+  </si>
+  <si>
+    <t>Bug Fixing &amp; Optimization</t>
+  </si>
+  <si>
+    <t>Dev-2 (Lead) + Dev-3</t>
+  </si>
+  <si>
+    <t>Dev-2 + UI-1 + Dev-3</t>
+  </si>
+  <si>
+    <t>CRUD &amp; Versioning APIs</t>
+  </si>
+  <si>
+    <t>M1 &amp; M2 Complete</t>
+  </si>
+  <si>
+    <t>M3 Complete</t>
+  </si>
+  <si>
+    <t>M4 Complete</t>
+  </si>
+  <si>
+    <t>Execution Trigger &amp; Status UI</t>
+  </si>
+  <si>
+    <t>M5 Complete</t>
+  </si>
+  <si>
+    <t>M6 Complete</t>
+  </si>
+  <si>
+    <t>Test Pack &amp; Scheduling UI</t>
+  </si>
+  <si>
+    <t>M7 Complete</t>
+  </si>
+  <si>
+    <t>Report View UI &amp; Export</t>
+  </si>
+  <si>
+    <t>Dev-1 (Lead) + Dev-3 (Support)</t>
+  </si>
+  <si>
+    <t>Bug Fixing &amp; Optimisation</t>
+  </si>
+  <si>
+    <t>Dev-2 (Lead) + Dev-3 (Support)</t>
+  </si>
+  <si>
+    <t>Dev-1 + Dev-3</t>
+  </si>
+  <si>
+    <t>Dev-2 + Dev-3</t>
+  </si>
+  <si>
+    <t>QA Scenario &amp; Security Design</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dev-1 + UI-1 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dev-3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dev-2 + UI-1 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dev-3</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,6 +622,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -541,6 +636,13 @@
       <color theme="1"/>
       <name val="Aptos"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -621,7 +723,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -632,9 +734,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -645,17 +757,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -960,21 +1061,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="50.33203125" style="4"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -990,7 +1090,7 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -1007,7 +1107,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>150</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1034,7 +1134,7 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1059,7 +1159,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1084,7 +1184,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1109,7 +1209,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1134,7 +1234,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>67</v>
       </c>
@@ -1159,7 +1259,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="1" t="s">
         <v>69</v>
       </c>
@@ -1184,7 +1284,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="1" t="s">
         <v>71</v>
       </c>
@@ -1209,7 +1309,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
         <v>73</v>
       </c>
@@ -1234,7 +1334,7 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="1" t="s">
         <v>75</v>
       </c>
@@ -1261,7 +1361,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="10" t="s">
         <v>151</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1288,7 +1388,7 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1313,7 +1413,7 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1338,7 +1438,7 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
@@ -1363,7 +1463,7 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="1" t="s">
         <v>79</v>
       </c>
@@ -1388,7 +1488,7 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="1" t="s">
         <v>81</v>
       </c>
@@ -1413,7 +1513,7 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="1" t="s">
         <v>69</v>
       </c>
@@ -1438,7 +1538,7 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="1" t="s">
         <v>71</v>
       </c>
@@ -1463,7 +1563,7 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="1" t="s">
         <v>73</v>
       </c>
@@ -1488,7 +1588,7 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="1" t="s">
         <v>84</v>
       </c>
@@ -1515,7 +1615,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="10" t="s">
         <v>152</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1542,7 +1642,7 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="1" t="s">
         <v>34</v>
       </c>
@@ -1567,7 +1667,7 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="1" t="s">
         <v>86</v>
       </c>
@@ -1592,7 +1692,7 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="1" t="s">
         <v>88</v>
       </c>
@@ -1617,7 +1717,7 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="1" t="s">
         <v>69</v>
       </c>
@@ -1642,7 +1742,7 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="1" t="s">
         <v>71</v>
       </c>
@@ -1667,7 +1767,7 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="1" t="s">
         <v>73</v>
       </c>
@@ -1692,7 +1792,7 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="1" t="s">
         <v>89</v>
       </c>
@@ -1719,7 +1819,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="10" t="s">
         <v>153</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1746,7 +1846,7 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="1" t="s">
         <v>92</v>
       </c>
@@ -1771,7 +1871,7 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="1" t="s">
         <v>94</v>
       </c>
@@ -1796,7 +1896,7 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="1" t="s">
         <v>95</v>
       </c>
@@ -1821,7 +1921,7 @@
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="1" t="s">
         <v>69</v>
       </c>
@@ -1846,7 +1946,7 @@
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="1" t="s">
         <v>71</v>
       </c>
@@ -1871,7 +1971,7 @@
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="1" t="s">
         <v>73</v>
       </c>
@@ -1896,7 +1996,7 @@
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="1" t="s">
         <v>89</v>
       </c>
@@ -1923,7 +2023,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="7" t="s">
         <v>154</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1950,7 +2050,7 @@
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="1" t="s">
         <v>98</v>
       </c>
@@ -1975,7 +2075,7 @@
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="1" t="s">
         <v>99</v>
       </c>
@@ -2000,7 +2100,7 @@
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="10"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="1" t="s">
         <v>69</v>
       </c>
@@ -2025,7 +2125,7 @@
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="10"/>
+      <c r="A42" s="8"/>
       <c r="B42" s="1" t="s">
         <v>101</v>
       </c>
@@ -2050,7 +2150,7 @@
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
+      <c r="A43" s="9"/>
       <c r="B43" s="1" t="s">
         <v>102</v>
       </c>
@@ -2077,7 +2177,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="7" t="s">
         <v>155</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -2104,7 +2204,7 @@
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="1" t="s">
         <v>106</v>
       </c>
@@ -2129,7 +2229,7 @@
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="10"/>
+      <c r="A46" s="8"/>
       <c r="B46" s="1" t="s">
         <v>69</v>
       </c>
@@ -2154,7 +2254,7 @@
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="10"/>
+      <c r="A47" s="8"/>
       <c r="B47" s="1" t="s">
         <v>109</v>
       </c>
@@ -2179,7 +2279,7 @@
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="11"/>
+      <c r="A48" s="9"/>
       <c r="B48" s="1" t="s">
         <v>102</v>
       </c>
@@ -2206,7 +2306,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="7" t="s">
         <v>156</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -2233,7 +2333,7 @@
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="10"/>
+      <c r="A50" s="8"/>
       <c r="B50" s="1" t="s">
         <v>112</v>
       </c>
@@ -2258,7 +2358,7 @@
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="10"/>
+      <c r="A51" s="8"/>
       <c r="B51" s="1" t="s">
         <v>113</v>
       </c>
@@ -2283,7 +2383,7 @@
       <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="11"/>
+      <c r="A52" s="9"/>
       <c r="B52" s="1" t="s">
         <v>102</v>
       </c>
@@ -2310,7 +2410,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="7" t="s">
         <v>157</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -2337,7 +2437,7 @@
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="10"/>
+      <c r="A54" s="8"/>
       <c r="B54" s="1" t="s">
         <v>117</v>
       </c>
@@ -2362,7 +2462,7 @@
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="10"/>
+      <c r="A55" s="8"/>
       <c r="B55" s="1" t="s">
         <v>118</v>
       </c>
@@ -2387,7 +2487,7 @@
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="10"/>
+      <c r="A56" s="8"/>
       <c r="B56" s="1" t="s">
         <v>23</v>
       </c>
@@ -2412,7 +2512,7 @@
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="11"/>
+      <c r="A57" s="9"/>
       <c r="B57" s="1" t="s">
         <v>102</v>
       </c>
@@ -2439,7 +2539,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="7" t="s">
         <v>158</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -2466,7 +2566,7 @@
       <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="10"/>
+      <c r="A59" s="8"/>
       <c r="B59" s="1" t="s">
         <v>121</v>
       </c>
@@ -2491,7 +2591,7 @@
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="10"/>
+      <c r="A60" s="8"/>
       <c r="B60" s="1" t="s">
         <v>122</v>
       </c>
@@ -2516,7 +2616,7 @@
       <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="10"/>
+      <c r="A61" s="8"/>
       <c r="B61" s="1" t="s">
         <v>69</v>
       </c>
@@ -2541,7 +2641,7 @@
       <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="10"/>
+      <c r="A62" s="8"/>
       <c r="B62" s="1" t="s">
         <v>123</v>
       </c>
@@ -2566,7 +2666,7 @@
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="10"/>
+      <c r="A63" s="8"/>
       <c r="B63" s="1" t="s">
         <v>73</v>
       </c>
@@ -2591,7 +2691,7 @@
       <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="11"/>
+      <c r="A64" s="9"/>
       <c r="B64" s="1" t="s">
         <v>75</v>
       </c>
@@ -2618,7 +2718,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="7" t="s">
         <v>159</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -2645,7 +2745,7 @@
       <c r="I65" s="1"/>
     </row>
     <row r="66" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="10"/>
+      <c r="A66" s="8"/>
       <c r="B66" s="1" t="s">
         <v>126</v>
       </c>
@@ -2670,7 +2770,7 @@
       <c r="I66" s="1"/>
     </row>
     <row r="67" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="10"/>
+      <c r="A67" s="8"/>
       <c r="B67" s="1" t="s">
         <v>127</v>
       </c>
@@ -2695,7 +2795,7 @@
       <c r="I67" s="1"/>
     </row>
     <row r="68" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="10"/>
+      <c r="A68" s="8"/>
       <c r="B68" s="1" t="s">
         <v>69</v>
       </c>
@@ -2720,7 +2820,7 @@
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="10"/>
+      <c r="A69" s="8"/>
       <c r="B69" s="1" t="s">
         <v>129</v>
       </c>
@@ -2745,7 +2845,7 @@
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="10"/>
+      <c r="A70" s="8"/>
       <c r="B70" s="1" t="s">
         <v>73</v>
       </c>
@@ -2770,7 +2870,7 @@
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="11"/>
+      <c r="A71" s="9"/>
       <c r="B71" s="1" t="s">
         <v>130</v>
       </c>
@@ -2797,7 +2897,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="7" t="s">
         <v>160</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -2824,7 +2924,7 @@
       <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="10"/>
+      <c r="A73" s="8"/>
       <c r="B73" s="1" t="s">
         <v>132</v>
       </c>
@@ -2849,7 +2949,7 @@
       <c r="I73" s="1"/>
     </row>
     <row r="74" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="10"/>
+      <c r="A74" s="8"/>
       <c r="B74" s="1" t="s">
         <v>134</v>
       </c>
@@ -2874,7 +2974,7 @@
       <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="10"/>
+      <c r="A75" s="8"/>
       <c r="B75" s="1" t="s">
         <v>135</v>
       </c>
@@ -2899,7 +2999,7 @@
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="10"/>
+      <c r="A76" s="8"/>
       <c r="B76" s="1" t="s">
         <v>69</v>
       </c>
@@ -2924,7 +3024,7 @@
       <c r="I76" s="1"/>
     </row>
     <row r="77" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="10"/>
+      <c r="A77" s="8"/>
       <c r="B77" s="1" t="s">
         <v>136</v>
       </c>
@@ -2949,7 +3049,7 @@
       <c r="I77" s="1"/>
     </row>
     <row r="78" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="11"/>
+      <c r="A78" s="9"/>
       <c r="B78" s="1" t="s">
         <v>102</v>
       </c>
@@ -2976,7 +3076,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="7" t="s">
         <v>161</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -3003,7 +3103,7 @@
       <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="10"/>
+      <c r="A80" s="8"/>
       <c r="B80" s="1" t="s">
         <v>139</v>
       </c>
@@ -3028,7 +3128,7 @@
       <c r="I80" s="1"/>
     </row>
     <row r="81" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="10"/>
+      <c r="A81" s="8"/>
       <c r="B81" s="1" t="s">
         <v>140</v>
       </c>
@@ -3053,7 +3153,7 @@
       <c r="I81" s="1"/>
     </row>
     <row r="82" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="10"/>
+      <c r="A82" s="8"/>
       <c r="B82" s="1" t="s">
         <v>141</v>
       </c>
@@ -3078,7 +3178,7 @@
       <c r="I82" s="1"/>
     </row>
     <row r="83" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="10"/>
+      <c r="A83" s="8"/>
       <c r="B83" s="1" t="s">
         <v>69</v>
       </c>
@@ -3103,7 +3203,7 @@
       <c r="I83" s="1"/>
     </row>
     <row r="84" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="10"/>
+      <c r="A84" s="8"/>
       <c r="B84" s="1" t="s">
         <v>142</v>
       </c>
@@ -3128,7 +3228,7 @@
       <c r="I84" s="1"/>
     </row>
     <row r="85" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="11"/>
+      <c r="A85" s="9"/>
       <c r="B85" s="1" t="s">
         <v>102</v>
       </c>
@@ -3155,7 +3255,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="7" t="s">
         <v>162</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -3182,7 +3282,7 @@
       <c r="I86" s="1"/>
     </row>
     <row r="87" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="10"/>
+      <c r="A87" s="8"/>
       <c r="B87" s="1" t="s">
         <v>145</v>
       </c>
@@ -3207,7 +3307,7 @@
       <c r="I87" s="1"/>
     </row>
     <row r="88" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="10"/>
+      <c r="A88" s="8"/>
       <c r="B88" s="1" t="s">
         <v>146</v>
       </c>
@@ -3232,7 +3332,7 @@
       <c r="I88" s="1"/>
     </row>
     <row r="89" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="10"/>
+      <c r="A89" s="8"/>
       <c r="B89" s="1" t="s">
         <v>69</v>
       </c>
@@ -3257,7 +3357,7 @@
       <c r="I89" s="1"/>
     </row>
     <row r="90" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="10"/>
+      <c r="A90" s="8"/>
       <c r="B90" s="1" t="s">
         <v>147</v>
       </c>
@@ -3282,7 +3382,7 @@
       <c r="I90" s="1"/>
     </row>
     <row r="91" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="11"/>
+      <c r="A91" s="9"/>
       <c r="B91" s="1" t="s">
         <v>102</v>
       </c>
@@ -3309,7 +3409,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="9" t="s">
+      <c r="A92" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -3336,7 +3436,7 @@
       <c r="I92" s="1"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="10"/>
+      <c r="A93" s="8"/>
       <c r="B93" s="1" t="s">
         <v>148</v>
       </c>
@@ -3361,7 +3461,7 @@
       <c r="I93" s="1"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="10"/>
+      <c r="A94" s="8"/>
       <c r="B94" s="1" t="s">
         <v>149</v>
       </c>
@@ -3386,7 +3486,2483 @@
       <c r="I94" s="1"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="11"/>
+      <c r="A95" s="9"/>
+      <c r="B95" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G95" s="2">
+        <v>46202</v>
+      </c>
+      <c r="H95" s="2">
+        <v>46202</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A58:A64"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A65:A71"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="A79:A85"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="A92:A95"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F0807F-1E18-4F31-8632-E6A8BDFFA5B4}">
+  <dimension ref="A1:I95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="2">
+        <v>46063</v>
+      </c>
+      <c r="H2" s="2">
+        <v>46069</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="2">
+        <v>46070</v>
+      </c>
+      <c r="H3" s="2">
+        <v>46076</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="2">
+        <v>46077</v>
+      </c>
+      <c r="H4" s="2">
+        <v>46081</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2">
+        <v>46071</v>
+      </c>
+      <c r="H5" s="2">
+        <v>46078</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2">
+        <v>46071</v>
+      </c>
+      <c r="H6" s="2">
+        <v>46076</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="2">
+        <v>46077</v>
+      </c>
+      <c r="H7" s="2">
+        <v>46078</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" s="2">
+        <v>46083</v>
+      </c>
+      <c r="H8" s="2">
+        <v>46084</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="2">
+        <v>46085</v>
+      </c>
+      <c r="H9" s="2">
+        <v>46090</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="2">
+        <v>46091</v>
+      </c>
+      <c r="H10" s="2">
+        <v>46092</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="2">
+        <v>46093</v>
+      </c>
+      <c r="H11" s="2">
+        <v>46094</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="2">
+        <v>46063</v>
+      </c>
+      <c r="H12" s="2">
+        <v>46069</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G13" s="2">
+        <v>46070</v>
+      </c>
+      <c r="H13" s="2">
+        <v>46076</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" s="2">
+        <v>46077</v>
+      </c>
+      <c r="H14" s="2">
+        <v>46081</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="1">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="2">
+        <v>46073</v>
+      </c>
+      <c r="H15" s="2">
+        <v>46080</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="2">
+        <v>46071</v>
+      </c>
+      <c r="H16" s="2">
+        <v>46076</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="2">
+        <v>46077</v>
+      </c>
+      <c r="H17" s="2">
+        <v>46078</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" s="2">
+        <v>46083</v>
+      </c>
+      <c r="H18" s="2">
+        <v>46084</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="2">
+        <v>46085</v>
+      </c>
+      <c r="H19" s="2">
+        <v>46090</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="2">
+        <v>46091</v>
+      </c>
+      <c r="H20" s="2">
+        <v>46092</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="2">
+        <v>46093</v>
+      </c>
+      <c r="H21" s="2">
+        <v>46094</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E22" s="1">
+        <v>7</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" s="2">
+        <v>46099</v>
+      </c>
+      <c r="H22" s="2">
+        <v>46107</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="1">
+        <v>6</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="2">
+        <v>46104</v>
+      </c>
+      <c r="H23" s="2">
+        <v>46111</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="2">
+        <v>46099</v>
+      </c>
+      <c r="H24" s="2">
+        <v>46105</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="2">
+        <v>46106</v>
+      </c>
+      <c r="H25" s="2">
+        <v>46108</v>
+      </c>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G26" s="2">
+        <v>46112</v>
+      </c>
+      <c r="H26" s="2">
+        <v>46113</v>
+      </c>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="2">
+        <v>46114</v>
+      </c>
+      <c r="H27" s="2">
+        <v>46119</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="2">
+        <v>46120</v>
+      </c>
+      <c r="H28" s="2">
+        <v>46121</v>
+      </c>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="12"/>
+      <c r="B29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="2">
+        <v>46122</v>
+      </c>
+      <c r="H29" s="2">
+        <v>46125</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" s="1">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G30" s="2">
+        <v>46126</v>
+      </c>
+      <c r="H30" s="2">
+        <v>46132</v>
+      </c>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
+      <c r="B31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="1">
+        <v>5</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G31" s="2">
+        <v>46133</v>
+      </c>
+      <c r="H31" s="2">
+        <v>46139</v>
+      </c>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="1">
+        <v>5</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="2">
+        <v>46133</v>
+      </c>
+      <c r="H32" s="2">
+        <v>46139</v>
+      </c>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="1">
+        <v>4</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="2">
+        <v>46133</v>
+      </c>
+      <c r="H33" s="2">
+        <v>46136</v>
+      </c>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G34" s="2">
+        <v>46140</v>
+      </c>
+      <c r="H34" s="2">
+        <v>46141</v>
+      </c>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+      <c r="B35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="1">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="2">
+        <v>46142</v>
+      </c>
+      <c r="H35" s="2">
+        <v>46147</v>
+      </c>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
+      <c r="B36" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="2">
+        <v>46148</v>
+      </c>
+      <c r="H36" s="2">
+        <v>46149</v>
+      </c>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="12"/>
+      <c r="B37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" s="2">
+        <v>46150</v>
+      </c>
+      <c r="H37" s="2">
+        <v>46153</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E38" s="1">
+        <v>5</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G38" s="2">
+        <v>46127</v>
+      </c>
+      <c r="H38" s="2">
+        <v>46133</v>
+      </c>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="1">
+        <v>4</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="2">
+        <v>46128</v>
+      </c>
+      <c r="H39" s="2">
+        <v>46133</v>
+      </c>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+      <c r="B40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="1">
+        <v>4</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="2">
+        <v>46128</v>
+      </c>
+      <c r="H40" s="2">
+        <v>46133</v>
+      </c>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G41" s="2">
+        <v>46134</v>
+      </c>
+      <c r="H41" s="2">
+        <v>46135</v>
+      </c>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="8"/>
+      <c r="B42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="1">
+        <v>4</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="2">
+        <v>46136</v>
+      </c>
+      <c r="H42" s="2">
+        <v>46141</v>
+      </c>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="9"/>
+      <c r="B43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" s="1">
+        <v>4</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G43" s="2">
+        <v>46142</v>
+      </c>
+      <c r="H43" s="2">
+        <v>46147</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E44" s="1">
+        <v>5</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G44" s="2">
+        <v>46134</v>
+      </c>
+      <c r="H44" s="2">
+        <v>46140</v>
+      </c>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="8"/>
+      <c r="B45" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45" s="1">
+        <v>4</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="2">
+        <v>46134</v>
+      </c>
+      <c r="H45" s="2">
+        <v>46137</v>
+      </c>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="8"/>
+      <c r="B46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G46" s="2">
+        <v>46141</v>
+      </c>
+      <c r="H46" s="2">
+        <v>46142</v>
+      </c>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="8"/>
+      <c r="B47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="1">
+        <v>3</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="2">
+        <v>46143</v>
+      </c>
+      <c r="H47" s="2">
+        <v>46147</v>
+      </c>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="9"/>
+      <c r="B48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" s="1">
+        <v>4</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G48" s="2">
+        <v>46148</v>
+      </c>
+      <c r="H48" s="2">
+        <v>46153</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E49" s="1">
+        <v>4</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G49" s="2">
+        <v>46143</v>
+      </c>
+      <c r="H49" s="2">
+        <v>46148</v>
+      </c>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="8"/>
+      <c r="B50" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="1">
+        <v>4</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="2">
+        <v>46143</v>
+      </c>
+      <c r="H50" s="2">
+        <v>46148</v>
+      </c>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="8"/>
+      <c r="B51" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="1">
+        <v>5</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="2">
+        <v>46149</v>
+      </c>
+      <c r="H51" s="2">
+        <v>46155</v>
+      </c>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="9"/>
+      <c r="B52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="1">
+        <v>2</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G52" s="2">
+        <v>46156</v>
+      </c>
+      <c r="H52" s="2">
+        <v>46157</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E53" s="1">
+        <v>4</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G53" s="2">
+        <v>46148</v>
+      </c>
+      <c r="H53" s="2">
+        <v>46153</v>
+      </c>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="8"/>
+      <c r="B54" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="1">
+        <v>4</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="2">
+        <v>46148</v>
+      </c>
+      <c r="H54" s="2">
+        <v>46153</v>
+      </c>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="8"/>
+      <c r="B55" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55" s="1">
+        <v>3</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="2">
+        <v>46148</v>
+      </c>
+      <c r="H55" s="2">
+        <v>46150</v>
+      </c>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="8"/>
+      <c r="B56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56" s="1">
+        <v>4</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" s="2">
+        <v>46154</v>
+      </c>
+      <c r="H56" s="2">
+        <v>46159</v>
+      </c>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="9"/>
+      <c r="B57" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E57" s="1">
+        <v>3</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G57" s="2">
+        <v>46160</v>
+      </c>
+      <c r="H57" s="2">
+        <v>46162</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58" s="1">
+        <v>5</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G58" s="2">
+        <v>46157</v>
+      </c>
+      <c r="H58" s="2">
+        <v>46163</v>
+      </c>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="8"/>
+      <c r="B59" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="1">
+        <v>4</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="2">
+        <v>46160</v>
+      </c>
+      <c r="H59" s="2">
+        <v>46163</v>
+      </c>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="8"/>
+      <c r="B60" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="1">
+        <v>4</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="2">
+        <v>46160</v>
+      </c>
+      <c r="H60" s="2">
+        <v>46163</v>
+      </c>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="8"/>
+      <c r="B61" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="1">
+        <v>2</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G61" s="2">
+        <v>46164</v>
+      </c>
+      <c r="H61" s="2">
+        <v>46167</v>
+      </c>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="8"/>
+      <c r="B62" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62" s="1">
+        <v>4</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="2">
+        <v>46168</v>
+      </c>
+      <c r="H62" s="2">
+        <v>46172</v>
+      </c>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="8"/>
+      <c r="B63" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E63" s="1">
+        <v>2</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G63" s="2">
+        <v>46175</v>
+      </c>
+      <c r="H63" s="2">
+        <v>46176</v>
+      </c>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="9"/>
+      <c r="B64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E64" s="1">
+        <v>2</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G64" s="2">
+        <v>46177</v>
+      </c>
+      <c r="H64" s="2">
+        <v>46178</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E65" s="1">
+        <v>5</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G65" s="2">
+        <v>46164</v>
+      </c>
+      <c r="H65" s="2">
+        <v>46170</v>
+      </c>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="8"/>
+      <c r="B66" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="1">
+        <v>4</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="2">
+        <v>46168</v>
+      </c>
+      <c r="H66" s="2">
+        <v>46172</v>
+      </c>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="8"/>
+      <c r="B67" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E67" s="1">
+        <v>4</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="2">
+        <v>46168</v>
+      </c>
+      <c r="H67" s="2">
+        <v>46172</v>
+      </c>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="8"/>
+      <c r="B68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" s="1">
+        <v>2</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G68" s="2">
+        <v>46174</v>
+      </c>
+      <c r="H68" s="2">
+        <v>46175</v>
+      </c>
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="8"/>
+      <c r="B69" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E69" s="1">
+        <v>4</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" s="2">
+        <v>46176</v>
+      </c>
+      <c r="H69" s="2">
+        <v>46179</v>
+      </c>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="8"/>
+      <c r="B70" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E70" s="1">
+        <v>2</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G70" s="2">
+        <v>46182</v>
+      </c>
+      <c r="H70" s="2">
+        <v>46183</v>
+      </c>
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="9"/>
+      <c r="B71" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E71" s="1">
+        <v>2</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G71" s="2">
+        <v>46184</v>
+      </c>
+      <c r="H71" s="2">
+        <v>46185</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E72" s="1">
+        <v>3</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G72" s="2">
+        <v>46157</v>
+      </c>
+      <c r="H72" s="2">
+        <v>46161</v>
+      </c>
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="8"/>
+      <c r="B73" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E73" s="1">
+        <v>4</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G73" s="2">
+        <v>46162</v>
+      </c>
+      <c r="H73" s="2">
+        <v>46167</v>
+      </c>
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="8"/>
+      <c r="B74" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" s="1">
+        <v>3</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" s="2">
+        <v>46162</v>
+      </c>
+      <c r="H74" s="2">
+        <v>46164</v>
+      </c>
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="8"/>
+      <c r="B75" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" s="1">
+        <v>3</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" s="2">
+        <v>46162</v>
+      </c>
+      <c r="H75" s="2">
+        <v>46164</v>
+      </c>
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="8"/>
+      <c r="B76" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G76" s="2">
+        <v>46168</v>
+      </c>
+      <c r="H76" s="2">
+        <v>46168</v>
+      </c>
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="8"/>
+      <c r="B77" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E77" s="1">
+        <v>3</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" s="2">
+        <v>46169</v>
+      </c>
+      <c r="H77" s="2">
+        <v>46171</v>
+      </c>
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="9"/>
+      <c r="B78" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E78" s="1">
+        <v>2</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G78" s="2">
+        <v>46174</v>
+      </c>
+      <c r="H78" s="2">
+        <v>46175</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E79" s="1">
+        <v>3</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G79" s="2">
+        <v>46175</v>
+      </c>
+      <c r="H79" s="2">
+        <v>46177</v>
+      </c>
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="8"/>
+      <c r="B80" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E80" s="1">
+        <v>6</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G80" s="2">
+        <v>46178</v>
+      </c>
+      <c r="H80" s="2">
+        <v>46185</v>
+      </c>
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="8"/>
+      <c r="B81" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" s="1">
+        <v>4</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G81" s="2">
+        <v>46182</v>
+      </c>
+      <c r="H81" s="2">
+        <v>46185</v>
+      </c>
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="8"/>
+      <c r="B82" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E82" s="1">
+        <v>4</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G82" s="2">
+        <v>46182</v>
+      </c>
+      <c r="H82" s="2">
+        <v>46185</v>
+      </c>
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="8"/>
+      <c r="B83" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" s="1">
+        <v>2</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G83" s="2">
+        <v>46188</v>
+      </c>
+      <c r="H83" s="2">
+        <v>46189</v>
+      </c>
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="8"/>
+      <c r="B84" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E84" s="1">
+        <v>3</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" s="2">
+        <v>46190</v>
+      </c>
+      <c r="H84" s="2">
+        <v>46192</v>
+      </c>
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="9"/>
+      <c r="B85" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E85" s="1">
+        <v>2</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G85" s="2">
+        <v>46192</v>
+      </c>
+      <c r="H85" s="2">
+        <v>46193</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E86" s="1">
+        <v>4</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G86" s="2">
+        <v>46182</v>
+      </c>
+      <c r="H86" s="2">
+        <v>46185</v>
+      </c>
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="8"/>
+      <c r="B87" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87" s="1">
+        <v>3</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G87" s="2">
+        <v>46184</v>
+      </c>
+      <c r="H87" s="2">
+        <v>46188</v>
+      </c>
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="8"/>
+      <c r="B88" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E88" s="1">
+        <v>3</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88" s="2">
+        <v>46184</v>
+      </c>
+      <c r="H88" s="2">
+        <v>46188</v>
+      </c>
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="8"/>
+      <c r="B89" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G89" s="2">
+        <v>46189</v>
+      </c>
+      <c r="H89" s="2">
+        <v>46189</v>
+      </c>
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="8"/>
+      <c r="B90" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E90" s="1">
+        <v>3</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G90" s="2">
+        <v>46190</v>
+      </c>
+      <c r="H90" s="2">
+        <v>46192</v>
+      </c>
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="9"/>
+      <c r="B91" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E91" s="1">
+        <v>2</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G91" s="2">
+        <v>46193</v>
+      </c>
+      <c r="H91" s="2">
+        <v>46194</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G92" s="2">
+        <v>46196</v>
+      </c>
+      <c r="H92" s="2">
+        <v>46196</v>
+      </c>
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="8"/>
+      <c r="B93" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E93" s="1">
+        <v>3</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G93" s="2">
+        <v>46197</v>
+      </c>
+      <c r="H93" s="2">
+        <v>46199</v>
+      </c>
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="8"/>
+      <c r="B94" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E94" s="1">
+        <v>2</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G94" s="2">
+        <v>46200</v>
+      </c>
+      <c r="H94" s="2">
+        <v>46201</v>
+      </c>
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="9"/>
       <c r="B95" s="1" t="s">
         <v>59</v>
       </c>
@@ -3419,21 +5995,21 @@
     <mergeCell ref="A79:A85"/>
     <mergeCell ref="A86:A91"/>
     <mergeCell ref="A92:A95"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A29"/>
     <mergeCell ref="A30:A37"/>
     <mergeCell ref="A38:A43"/>
     <mergeCell ref="A44:A48"/>
     <mergeCell ref="A49:A52"/>
     <mergeCell ref="A53:A57"/>
     <mergeCell ref="A58:A64"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A29"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -3445,22 +6021,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="5" t="s">
         <v>41</v>
       </c>
     </row>
